--- a/Prototypes/Mungbean/PhenologyDataobserved.xlsx
+++ b/Prototypes/Mungbean/PhenologyDataobserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3168FD-B24B-49C3-9A10-7B3DC70CF37C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75C115-33E5-497D-8893-F59BD4FEB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9E80397B-029B-4ADA-B655-E0D8ED91558E}"/>
+    <workbookView xWindow="34365" yWindow="8040" windowWidth="20775" windowHeight="11835" xr2:uid="{9E80397B-029B-4ADA-B655-E0D8ED91558E}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -45,39 +45,9 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.Phenology.AccumulatedTT</t>
-  </si>
-  <si>
     <t>Gatton</t>
   </si>
   <si>
-    <t>Soybean.Leaf.NodeNumber</t>
-  </si>
-  <si>
-    <t>Soybean.Node.NumberError</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.BranchNumber</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.WtError</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.WtError</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Area</t>
-  </si>
-  <si>
     <t>SW15</t>
   </si>
   <si>
@@ -99,10 +69,40 @@
     <t>ExtraPhenSowOctCvJade</t>
   </si>
   <si>
-    <t>Soybean.Phenology.StartFloweringDAS</t>
-  </si>
-  <si>
     <t>DAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.AccumulatedTT</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.NodeNumber</t>
+  </si>
+  <si>
+    <t>Mungbean.Node.NumberError</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.BranchNumber</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Area</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartFloweringDAS</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A7D358-3901-48E4-A6FD-AD84E4141636}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,69 +524,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f>D2-D$2</f>
@@ -610,13 +610,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">D3-D$2</f>
+        <f t="shared" ref="C3:C12" si="0">D3-D$2</f>
         <v>15</v>
       </c>
       <c r="D3" s="6">
@@ -637,10 +637,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -664,10 +664,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -691,10 +691,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -721,10 +721,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -767,10 +767,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -813,10 +813,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -863,10 +863,10 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -916,10 +916,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -942,6 +942,37 @@
       </c>
       <c r="O11">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44565</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>321</v>
+      </c>
+      <c r="L12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <f>K12+I12</f>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
